--- a/biology/Botanique/Bouleau_d'Afrique/Bouleau_d'Afrique.xlsx
+++ b/biology/Botanique/Bouleau_d'Afrique/Bouleau_d'Afrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouleau_d%27Afrique</t>
+          <t>Bouleau_d'Afrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anogeissus leiocarpus
 Le bouleau d'Afrique (Anogeissus leiocarpus ou ngálǎma en bambara) est un arbre des savanes d'Afrique tropicale occidentale de la famille des Combretaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouleau_d%27Afrique</t>
+          <t>Bouleau_d'Afrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Ethnobotanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre entre dans la fabrication du bogolan, un tissu traditionnel malien. Feuilles et branchettes sont broyées pour obtenir une teinture jaune. L'écorce interne est utilisée comme vermifuge humain et animal, notamment contre la nagana et la babésiose ; au Nigeria elle sert de dentifrice – ses extraits révèlent des propriétés antibactériennes.
-Il contient aussi de la castalagine, une molécule capable de tuer le parasite de Leishmania in vitro[2].
+Il contient aussi de la castalagine, une molécule capable de tuer le parasite de Leishmania in vitro.
 </t>
         </is>
       </c>
